--- a/spotify_data.xlsx
+++ b/spotify_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0.738</v>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0.658</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.828</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
         <v>0.8090000000000001</v>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" t="n">
         <v>0.6899999999999999</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" t="n">
         <v>0.631</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" t="n">
         <v>0.577</v>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
         <v>0.746</v>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F39" t="n">
         <v>0.708</v>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" t="n">
         <v>0.82</v>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F46" t="n">
         <v>0.839</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" t="n">
         <v>0.5679999999999999</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51" t="n">
         <v>0.703</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0.473</v>
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" t="n">
         <v>0.738</v>
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58" t="n">
         <v>0.58</v>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59" t="n">
         <v>0.781</v>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F61" t="n">
         <v>0.783</v>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F62" t="n">
         <v>0.744</v>
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F65" t="n">
         <v>0.799</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F66" t="n">
         <v>0.739</v>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F67" t="n">
         <v>0.697</v>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F68" t="n">
         <v>0.723</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70" t="n">
         <v>0.78</v>
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F72" t="n">
         <v>0.782</v>
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F73" t="n">
         <v>0.668</v>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74" t="n">
         <v>0.84</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0.734</v>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F79" t="n">
         <v>0.882</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0.879</v>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F83" t="n">
         <v>0.456</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F84" t="n">
         <v>0.745</v>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F86" t="n">
         <v>0.722</v>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F87" t="n">
         <v>0.742</v>
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F93" t="n">
         <v>0.6889999999999999</v>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F94" t="n">
         <v>0.73</v>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F98" t="n">
         <v>0.599</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F99" t="n">
         <v>0.784</v>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F100" t="n">
         <v>0.626</v>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F101" t="n">
         <v>0.785</v>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F103" t="n">
         <v>0.798</v>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F104" t="n">
         <v>0.75</v>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F105" t="n">
         <v>0.472</v>
@@ -4424,7 +4424,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F108" t="n">
         <v>0.57</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F109" t="n">
         <v>0.763</v>
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F110" t="n">
         <v>0.798</v>
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F112" t="n">
         <v>0.703</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F113" t="n">
         <v>0.828</v>
@@ -4683,7 +4683,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F115" t="n">
         <v>0.666</v>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F116" t="n">
         <v>0.778</v>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F118" t="n">
         <v>0.639</v>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F120" t="n">
         <v>0.915</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F122" t="n">
         <v>0.699</v>
@@ -5053,7 +5053,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F125" t="n">
         <v>0.819</v>
@@ -5090,7 +5090,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F126" t="n">
         <v>0.8110000000000001</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F127" t="n">
         <v>0.605</v>
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F130" t="n">
         <v>0.8139999999999999</v>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F134" t="n">
         <v>0.749</v>
@@ -5460,7 +5460,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F136" t="n">
         <v>0.8</v>
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F137" t="n">
         <v>0.841</v>
@@ -5534,7 +5534,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F138" t="n">
         <v>0.586</v>
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F141" t="n">
         <v>0.834</v>
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F142" t="n">
         <v>0.598</v>
@@ -5719,7 +5719,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F143" t="n">
         <v>0.757</v>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F144" t="n">
         <v>0.796</v>
@@ -5793,7 +5793,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F145" t="n">
         <v>0.675</v>
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F153" t="n">
         <v>0.698</v>
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F155" t="n">
         <v>0.776</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F156" t="n">
         <v>0.72</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F157" t="n">
         <v>0.783</v>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F158" t="n">
         <v>0.8</v>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F160" t="n">
         <v>0.748</v>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F161" t="n">
         <v>0.644</v>
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F162" t="n">
         <v>0.729</v>
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F163" t="n">
         <v>0.719</v>
@@ -6509,6 +6509,154 @@
       </c>
       <c r="I164" t="n">
         <v>189773</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>MASCARA</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>XG</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>['k-pop girl group']</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>MASCARA</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>66</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="I165" t="n">
+        <v>191440</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Wake Up</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Girls' Generation</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>['k-pop', 'k-pop girl group']</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Hoot - The 3rd Mini Album</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>26</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I166" t="n">
+        <v>197173</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Super Lady</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>(G)I-DLE</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>['k-pop girl group']</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>82</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I167" t="n">
+        <v>152187</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Like Ooh-Ahh</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>TWICE</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>['k-pop', 'k-pop girl group', 'pop']</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>The Story Begins</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>69</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="I168" t="n">
+        <v>215080</v>
       </c>
     </row>
   </sheetData>
